--- a/notebooks/ESAM/input/esam_lecca_2023.xlsx
+++ b/notebooks/ESAM/input/esam_lecca_2023.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11210"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10311"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robinp/GIT/phenopacket-store/notebooks/ESAM/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C5C5FB2-8F84-554F-BA3C-80C03DB29F31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DDD04E6-3177-224E-86B2-F4A7D7BD50BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table 1" sheetId="2" r:id="rId1"/>
     <sheet name="Foglio1" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Table 1'!$A$1:$P$50</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Table 1'!$A$1:$P$51</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="270">
   <si>
     <t>F</t>
   </si>
@@ -888,6 +888,18 @@
   </si>
   <si>
     <t>Severe hydrops fetalis ,Septate cystic hygroma, Cardiomegaly , Tricuspid regurgitation, Pulmonary atresia,Markedly hypoplastic lungs / atelectasis, Splenic cyst ,Diffuse bullous skin lesions,Langerhans cell hyperplasia,Hepatic sinusoidal dilatation / centrilobular congestion,Renal medullary hemorrhage</t>
+  </si>
+  <si>
+    <t>age_of_onset</t>
+  </si>
+  <si>
+    <t>Neonatal onset</t>
+  </si>
+  <si>
+    <t>Antenatal onset</t>
+  </si>
+  <si>
+    <t>na</t>
   </si>
 </sst>
 </file>
@@ -953,7 +965,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -966,8 +978,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -1089,11 +1107,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FFA6A6A6"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFA6A6A6"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1319,6 +1348,9 @@
       <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1736,7 +1768,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="A1:O38" totalsRowShown="0" headerRowDxfId="17" dataDxfId="15" headerRowBorderDxfId="16">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="A1:O39" totalsRowShown="0" headerRowDxfId="17" dataDxfId="15" headerRowBorderDxfId="16">
   <tableColumns count="15">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Clinical features" dataDxfId="14"/>
     <tableColumn id="14" xr3:uid="{A8C46EFF-8AC6-433E-ADA4-ED6ADDDA9B64}" name="Individual 1" dataDxfId="13"/>
@@ -1759,9 +1791,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1799,7 +1831,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1905,7 +1937,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2047,7 +2079,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2058,10 +2090,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:X50"/>
+  <dimension ref="A1:X51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38:XFD38"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2689,189 +2721,195 @@
       <c r="W12" s="1"/>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A13" s="36" t="s">
-        <v>92</v>
-      </c>
-      <c r="B13" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="C13" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="D13" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="E13" s="37" t="s">
-        <v>78</v>
-      </c>
-      <c r="F13" s="39" t="s">
-        <v>35</v>
-      </c>
-      <c r="G13" s="39" t="s">
-        <v>23</v>
-      </c>
-      <c r="H13" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="I13" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="J13" s="41" t="s">
-        <v>29</v>
-      </c>
-      <c r="K13" s="38" t="s">
-        <v>102</v>
-      </c>
-      <c r="L13" s="39" t="s">
-        <v>84</v>
-      </c>
-      <c r="M13" s="39" t="s">
-        <v>102</v>
-      </c>
-      <c r="N13" s="39" t="s">
-        <v>102</v>
-      </c>
-      <c r="O13" s="38" t="s">
-        <v>56</v>
-      </c>
+      <c r="A13" s="73" t="s">
+        <v>266</v>
+      </c>
+      <c r="B13" s="37" t="s">
+        <v>267</v>
+      </c>
+      <c r="C13" s="37" t="s">
+        <v>267</v>
+      </c>
+      <c r="D13" s="37" t="s">
+        <v>267</v>
+      </c>
+      <c r="E13" s="77" t="s">
+        <v>268</v>
+      </c>
+      <c r="F13" s="77" t="s">
+        <v>268</v>
+      </c>
+      <c r="G13" s="77" t="s">
+        <v>268</v>
+      </c>
+      <c r="H13" s="37" t="s">
+        <v>267</v>
+      </c>
+      <c r="I13" s="37" t="s">
+        <v>267</v>
+      </c>
+      <c r="J13" s="37" t="s">
+        <v>267</v>
+      </c>
+      <c r="K13" s="37" t="s">
+        <v>268</v>
+      </c>
+      <c r="L13" s="37" t="s">
+        <v>268</v>
+      </c>
+      <c r="M13" s="37" t="s">
+        <v>268</v>
+      </c>
+      <c r="N13" s="37" t="s">
+        <v>268</v>
+      </c>
+      <c r="O13" s="40"/>
       <c r="P13" s="64"/>
       <c r="R13" s="1"/>
       <c r="S13" s="1"/>
       <c r="V13" s="1"/>
       <c r="W13" s="1"/>
     </row>
-    <row r="14" spans="1:23" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="71" t="s">
-        <v>8</v>
-      </c>
-      <c r="B14" s="14" t="s">
-        <v>148</v>
-      </c>
-      <c r="C14" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="D14" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="F14" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="G14" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="H14" s="14" t="s">
-        <v>117</v>
-      </c>
-      <c r="I14" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="J14" s="9" t="s">
-        <v>154</v>
-      </c>
-      <c r="K14" s="14" t="s">
-        <v>147</v>
-      </c>
-      <c r="L14" s="14" t="s">
-        <v>146</v>
-      </c>
-      <c r="M14" s="14" t="s">
-        <v>129</v>
-      </c>
-      <c r="N14" s="14" t="s">
-        <v>135</v>
-      </c>
-      <c r="O14" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="P14" s="65"/>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A14" s="36" t="s">
+        <v>92</v>
+      </c>
+      <c r="B14" s="38" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="38" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" s="38" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14" s="37" t="s">
+        <v>78</v>
+      </c>
+      <c r="F14" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="G14" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="H14" s="38" t="s">
+        <v>29</v>
+      </c>
+      <c r="I14" s="38" t="s">
+        <v>29</v>
+      </c>
+      <c r="J14" s="41" t="s">
+        <v>29</v>
+      </c>
+      <c r="K14" s="38" t="s">
+        <v>102</v>
+      </c>
+      <c r="L14" s="39" t="s">
+        <v>84</v>
+      </c>
+      <c r="M14" s="39" t="s">
+        <v>102</v>
+      </c>
+      <c r="N14" s="39" t="s">
+        <v>102</v>
+      </c>
+      <c r="O14" s="38" t="s">
+        <v>269</v>
+      </c>
+      <c r="P14" s="64"/>
       <c r="R14" s="1"/>
       <c r="S14" s="1"/>
       <c r="V14" s="1"/>
       <c r="W14" s="1"/>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A15" s="72" t="s">
-        <v>205</v>
-      </c>
-      <c r="B15" s="33" t="s">
-        <v>81</v>
-      </c>
-      <c r="C15" s="34" t="s">
-        <v>73</v>
-      </c>
-      <c r="D15" s="34" t="s">
-        <v>74</v>
-      </c>
-      <c r="E15" s="33" t="s">
-        <v>75</v>
-      </c>
-      <c r="F15" s="44" t="s">
-        <v>75</v>
-      </c>
-      <c r="G15" s="44" t="s">
-        <v>73</v>
-      </c>
-      <c r="H15" s="33" t="s">
-        <v>83</v>
-      </c>
-      <c r="I15" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="J15" s="42" t="s">
-        <v>39</v>
-      </c>
-      <c r="K15" s="33"/>
-      <c r="L15" s="44"/>
-      <c r="M15" s="44"/>
-      <c r="N15" s="44"/>
-      <c r="O15" s="33" t="s">
+    <row r="15" spans="1:23" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="71" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="F15" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="G15" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="H15" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="I15" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="J15" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="K15" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="L15" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="M15" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="N15" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="O15" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="P15" s="64"/>
+      <c r="P15" s="65"/>
       <c r="R15" s="1"/>
       <c r="S15" s="1"/>
       <c r="V15" s="1"/>
       <c r="W15" s="1"/>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A16" s="73" t="s">
-        <v>204</v>
-      </c>
-      <c r="B16" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="C16" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="D16" s="37" t="s">
-        <v>40</v>
-      </c>
-      <c r="E16" s="37" t="s">
-        <v>40</v>
-      </c>
-      <c r="F16" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="G16" s="39" t="s">
-        <v>2</v>
-      </c>
-      <c r="H16" s="37" t="s">
-        <v>40</v>
-      </c>
-      <c r="I16" s="37" t="s">
-        <v>40</v>
-      </c>
-      <c r="J16" s="41" t="s">
-        <v>40</v>
-      </c>
-      <c r="K16" s="37"/>
-      <c r="L16" s="39"/>
-      <c r="M16" s="39"/>
-      <c r="N16" s="39"/>
-      <c r="O16" s="37" t="s">
+      <c r="A16" s="72" t="s">
+        <v>205</v>
+      </c>
+      <c r="B16" s="33" t="s">
+        <v>81</v>
+      </c>
+      <c r="C16" s="34" t="s">
+        <v>73</v>
+      </c>
+      <c r="D16" s="34" t="s">
+        <v>74</v>
+      </c>
+      <c r="E16" s="33" t="s">
+        <v>75</v>
+      </c>
+      <c r="F16" s="44" t="s">
+        <v>75</v>
+      </c>
+      <c r="G16" s="44" t="s">
+        <v>73</v>
+      </c>
+      <c r="H16" s="33" t="s">
+        <v>83</v>
+      </c>
+      <c r="I16" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="J16" s="42" t="s">
+        <v>39</v>
+      </c>
+      <c r="K16" s="33"/>
+      <c r="L16" s="44"/>
+      <c r="M16" s="44"/>
+      <c r="N16" s="44"/>
+      <c r="O16" s="33" t="s">
         <v>56</v>
       </c>
       <c r="P16" s="64"/>
@@ -2882,34 +2920,34 @@
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A17" s="73" t="s">
-        <v>222</v>
+        <v>204</v>
       </c>
       <c r="B17" s="37" t="s">
-        <v>19</v>
-      </c>
-      <c r="C17" s="41" t="s">
-        <v>93</v>
+        <v>2</v>
+      </c>
+      <c r="C17" s="38" t="s">
+        <v>2</v>
       </c>
       <c r="D17" s="37" t="s">
-        <v>153</v>
+        <v>40</v>
       </c>
       <c r="E17" s="37" t="s">
-        <v>160</v>
+        <v>40</v>
       </c>
       <c r="F17" s="39" t="s">
-        <v>112</v>
+        <v>40</v>
       </c>
       <c r="G17" s="39" t="s">
-        <v>106</v>
-      </c>
-      <c r="H17" s="41" t="s">
-        <v>164</v>
+        <v>2</v>
+      </c>
+      <c r="H17" s="37" t="s">
+        <v>40</v>
       </c>
       <c r="I17" s="37" t="s">
-        <v>157</v>
+        <v>40</v>
       </c>
       <c r="J17" s="41" t="s">
-        <v>155</v>
+        <v>40</v>
       </c>
       <c r="K17" s="37"/>
       <c r="L17" s="39"/>
@@ -2926,34 +2964,34 @@
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A18" s="73" t="s">
-        <v>202</v>
+        <v>222</v>
       </c>
       <c r="B18" s="37" t="s">
-        <v>152</v>
+        <v>19</v>
       </c>
       <c r="C18" s="41" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D18" s="37" t="s">
-        <v>95</v>
+        <v>153</v>
       </c>
       <c r="E18" s="37" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F18" s="39" t="s">
-        <v>156</v>
+        <v>112</v>
       </c>
       <c r="G18" s="39" t="s">
-        <v>156</v>
+        <v>106</v>
       </c>
       <c r="H18" s="41" t="s">
-        <v>56</v>
+        <v>164</v>
       </c>
       <c r="I18" s="37" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="J18" s="41" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="K18" s="37"/>
       <c r="L18" s="39"/>
@@ -2970,34 +3008,34 @@
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A19" s="73" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B19" s="37" t="s">
-        <v>115</v>
+        <v>152</v>
       </c>
       <c r="C19" s="41" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="D19" s="37" t="s">
-        <v>24</v>
+        <v>95</v>
       </c>
       <c r="E19" s="37" t="s">
-        <v>111</v>
+        <v>161</v>
       </c>
       <c r="F19" s="39" t="s">
-        <v>113</v>
+        <v>156</v>
       </c>
       <c r="G19" s="39" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="H19" s="41" t="s">
-        <v>107</v>
+        <v>56</v>
       </c>
       <c r="I19" s="37" t="s">
-        <v>24</v>
+        <v>158</v>
       </c>
       <c r="J19" s="41" t="s">
-        <v>24</v>
+        <v>152</v>
       </c>
       <c r="K19" s="37"/>
       <c r="L19" s="39"/>
@@ -3012,42 +3050,42 @@
       <c r="V19" s="1"/>
       <c r="W19" s="1"/>
     </row>
-    <row r="20" spans="1:23" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="74" t="s">
-        <v>203</v>
-      </c>
-      <c r="B20" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="D20" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="E20" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="F20" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="G20" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="H20" s="21" t="s">
-        <v>66</v>
-      </c>
-      <c r="I20" s="20" t="s">
-        <v>114</v>
-      </c>
-      <c r="J20" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="K20" s="20"/>
-      <c r="L20" s="18"/>
-      <c r="M20" s="18"/>
-      <c r="N20" s="18"/>
-      <c r="O20" s="14" t="s">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A20" s="73" t="s">
+        <v>201</v>
+      </c>
+      <c r="B20" s="37" t="s">
+        <v>115</v>
+      </c>
+      <c r="C20" s="41" t="s">
+        <v>105</v>
+      </c>
+      <c r="D20" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20" s="37" t="s">
+        <v>111</v>
+      </c>
+      <c r="F20" s="39" t="s">
+        <v>113</v>
+      </c>
+      <c r="G20" s="39" t="s">
+        <v>163</v>
+      </c>
+      <c r="H20" s="41" t="s">
+        <v>107</v>
+      </c>
+      <c r="I20" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="J20" s="41" t="s">
+        <v>24</v>
+      </c>
+      <c r="K20" s="37"/>
+      <c r="L20" s="39"/>
+      <c r="M20" s="39"/>
+      <c r="N20" s="39"/>
+      <c r="O20" s="37" t="s">
         <v>56</v>
       </c>
       <c r="P20" s="64"/>
@@ -3056,42 +3094,44 @@
       <c r="V20" s="1"/>
       <c r="W20" s="1"/>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A21" s="69" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21" s="47" t="s">
-        <v>149</v>
-      </c>
-      <c r="C21" s="34" t="s">
-        <v>71</v>
-      </c>
-      <c r="D21" s="34" t="s">
-        <v>72</v>
-      </c>
-      <c r="E21" s="33" t="s">
-        <v>79</v>
-      </c>
-      <c r="F21" s="44" t="s">
-        <v>86</v>
-      </c>
-      <c r="G21" s="44" t="s">
-        <v>82</v>
-      </c>
-      <c r="H21" s="33" t="s">
-        <v>118</v>
-      </c>
-      <c r="I21" s="33" t="s">
-        <v>85</v>
-      </c>
-      <c r="J21" s="42" t="s">
-        <v>166</v>
-      </c>
-      <c r="K21" s="47"/>
-      <c r="L21" s="44"/>
-      <c r="M21" s="44"/>
-      <c r="N21" s="44"/>
-      <c r="O21" s="33"/>
+    <row r="21" spans="1:23" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="74" t="s">
+        <v>203</v>
+      </c>
+      <c r="B21" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="D21" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="E21" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="F21" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="G21" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="H21" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="I21" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="J21" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="K21" s="20"/>
+      <c r="L21" s="18"/>
+      <c r="M21" s="18"/>
+      <c r="N21" s="18"/>
+      <c r="O21" s="14" t="s">
+        <v>56</v>
+      </c>
       <c r="P21" s="64"/>
       <c r="R21" s="1"/>
       <c r="S21" s="1"/>
@@ -3099,43 +3139,41 @@
       <c r="W21" s="1"/>
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A22" s="73" t="s">
-        <v>223</v>
-      </c>
-      <c r="B22" s="48" t="s">
-        <v>150</v>
-      </c>
-      <c r="C22" s="41" t="s">
-        <v>87</v>
-      </c>
-      <c r="D22" s="41" t="s">
-        <v>88</v>
-      </c>
-      <c r="E22" s="37" t="s">
-        <v>90</v>
-      </c>
-      <c r="F22" s="39" t="s">
-        <v>108</v>
-      </c>
-      <c r="G22" s="39" t="s">
-        <v>120</v>
-      </c>
-      <c r="H22" s="41" t="s">
-        <v>165</v>
-      </c>
-      <c r="I22" s="41" t="s">
-        <v>97</v>
-      </c>
-      <c r="J22" s="41" t="s">
-        <v>91</v>
-      </c>
-      <c r="K22" s="49"/>
-      <c r="L22" s="39"/>
-      <c r="M22" s="39"/>
-      <c r="N22" s="39"/>
-      <c r="O22" s="37" t="s">
-        <v>56</v>
-      </c>
+      <c r="A22" s="69" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" s="47" t="s">
+        <v>149</v>
+      </c>
+      <c r="C22" s="34" t="s">
+        <v>71</v>
+      </c>
+      <c r="D22" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="E22" s="33" t="s">
+        <v>79</v>
+      </c>
+      <c r="F22" s="44" t="s">
+        <v>86</v>
+      </c>
+      <c r="G22" s="44" t="s">
+        <v>82</v>
+      </c>
+      <c r="H22" s="33" t="s">
+        <v>118</v>
+      </c>
+      <c r="I22" s="33" t="s">
+        <v>85</v>
+      </c>
+      <c r="J22" s="42" t="s">
+        <v>166</v>
+      </c>
+      <c r="K22" s="47"/>
+      <c r="L22" s="44"/>
+      <c r="M22" s="44"/>
+      <c r="N22" s="44"/>
+      <c r="O22" s="33"/>
       <c r="P22" s="64"/>
       <c r="R22" s="1"/>
       <c r="S22" s="1"/>
@@ -3144,34 +3182,34 @@
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A23" s="73" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B23" s="48" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="C23" s="41" t="s">
-        <v>151</v>
+        <v>87</v>
       </c>
       <c r="D23" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E23" s="37" t="s">
-        <v>162</v>
+        <v>90</v>
       </c>
       <c r="F23" s="39" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G23" s="39" t="s">
-        <v>56</v>
+        <v>120</v>
       </c>
       <c r="H23" s="41" t="s">
-        <v>121</v>
+        <v>165</v>
       </c>
       <c r="I23" s="41" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="J23" s="41" t="s">
-        <v>167</v>
+        <v>91</v>
       </c>
       <c r="K23" s="49"/>
       <c r="L23" s="39"/>
@@ -3180,96 +3218,92 @@
       <c r="O23" s="37" t="s">
         <v>56</v>
       </c>
-      <c r="P23" s="1"/>
+      <c r="P23" s="64"/>
       <c r="R23" s="1"/>
       <c r="S23" s="1"/>
       <c r="V23" s="1"/>
       <c r="W23" s="1"/>
     </row>
-    <row r="24" spans="1:23" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="74" t="s">
-        <v>225</v>
-      </c>
-      <c r="B24" s="20" t="s">
-        <v>194</v>
-      </c>
-      <c r="C24" s="14" t="s">
-        <v>195</v>
-      </c>
-      <c r="D24" s="14" t="s">
-        <v>196</v>
-      </c>
-      <c r="E24" s="9" t="s">
-        <v>192</v>
-      </c>
-      <c r="F24" s="17" t="s">
-        <v>193</v>
-      </c>
-      <c r="G24" s="18" t="s">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A24" s="73" t="s">
+        <v>224</v>
+      </c>
+      <c r="B24" s="48" t="s">
+        <v>159</v>
+      </c>
+      <c r="C24" s="41" t="s">
+        <v>151</v>
+      </c>
+      <c r="D24" s="41" t="s">
+        <v>89</v>
+      </c>
+      <c r="E24" s="37" t="s">
+        <v>162</v>
+      </c>
+      <c r="F24" s="39" t="s">
+        <v>109</v>
+      </c>
+      <c r="G24" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="H24" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="I24" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="J24" s="14" t="s">
-        <v>197</v>
-      </c>
-      <c r="K24" s="20"/>
-      <c r="L24" s="18"/>
-      <c r="M24" s="18"/>
-      <c r="N24" s="18"/>
-      <c r="O24" s="14" t="s">
+      <c r="H24" s="41" t="s">
+        <v>121</v>
+      </c>
+      <c r="I24" s="41" t="s">
+        <v>96</v>
+      </c>
+      <c r="J24" s="41" t="s">
+        <v>167</v>
+      </c>
+      <c r="K24" s="49"/>
+      <c r="L24" s="39"/>
+      <c r="M24" s="39"/>
+      <c r="N24" s="39"/>
+      <c r="O24" s="37" t="s">
         <v>56</v>
       </c>
-      <c r="P24" s="64"/>
+      <c r="P24" s="1"/>
       <c r="R24" s="1"/>
       <c r="S24" s="1"/>
       <c r="V24" s="1"/>
       <c r="W24" s="1"/>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A25" s="32" t="s">
-        <v>226</v>
-      </c>
-      <c r="B25" s="50" t="s">
-        <v>21</v>
-      </c>
-      <c r="C25" s="51" t="s">
-        <v>3</v>
-      </c>
-      <c r="D25" s="51" t="s">
-        <v>3</v>
-      </c>
-      <c r="E25" s="51" t="s">
-        <v>116</v>
-      </c>
-      <c r="F25" s="51" t="s">
-        <v>116</v>
-      </c>
-      <c r="G25" s="51" t="s">
-        <v>116</v>
-      </c>
-      <c r="H25" s="52" t="s">
-        <v>116</v>
-      </c>
-      <c r="I25" s="53" t="s">
-        <v>116</v>
-      </c>
-      <c r="J25" s="52" t="s">
-        <v>3</v>
-      </c>
-      <c r="K25" s="50" t="s">
-        <v>116</v>
-      </c>
-      <c r="L25" s="54" t="s">
-        <v>116</v>
-      </c>
-      <c r="M25" s="54"/>
-      <c r="N25" s="54"/>
-      <c r="O25" s="34" t="s">
+    <row r="25" spans="1:23" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="74" t="s">
+        <v>225</v>
+      </c>
+      <c r="B25" s="20" t="s">
+        <v>194</v>
+      </c>
+      <c r="C25" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="D25" s="14" t="s">
+        <v>196</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="F25" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="G25" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="H25" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="I25" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="J25" s="14" t="s">
+        <v>197</v>
+      </c>
+      <c r="K25" s="20"/>
+      <c r="L25" s="18"/>
+      <c r="M25" s="18"/>
+      <c r="N25" s="18"/>
+      <c r="O25" s="14" t="s">
         <v>56</v>
       </c>
       <c r="P25" s="64"/>
@@ -3278,46 +3312,46 @@
       <c r="V25" s="1"/>
       <c r="W25" s="1"/>
     </row>
-    <row r="26" spans="1:23" ht="212.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="71" t="s">
-        <v>98</v>
-      </c>
-      <c r="B26" s="14" t="s">
-        <v>227</v>
-      </c>
-      <c r="C26" s="15" t="s">
-        <v>228</v>
-      </c>
-      <c r="D26" s="15" t="s">
-        <v>229</v>
-      </c>
-      <c r="E26" s="14" t="s">
-        <v>234</v>
-      </c>
-      <c r="F26" s="14" t="s">
-        <v>233</v>
-      </c>
-      <c r="G26" s="23" t="s">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A26" s="32" t="s">
+        <v>226</v>
+      </c>
+      <c r="B26" s="50" t="s">
+        <v>21</v>
+      </c>
+      <c r="C26" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="D26" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="E26" s="51" t="s">
         <v>116</v>
       </c>
-      <c r="H26" s="14" t="s">
-        <v>230</v>
-      </c>
-      <c r="I26" s="14" t="s">
-        <v>232</v>
-      </c>
-      <c r="J26" s="9" t="s">
-        <v>231</v>
-      </c>
-      <c r="K26" s="14" t="s">
-        <v>235</v>
-      </c>
-      <c r="L26" s="24" t="s">
+      <c r="F26" s="51" t="s">
         <v>116</v>
       </c>
-      <c r="M26" s="24"/>
-      <c r="N26" s="24"/>
-      <c r="O26" s="14" t="s">
+      <c r="G26" s="51" t="s">
+        <v>116</v>
+      </c>
+      <c r="H26" s="52" t="s">
+        <v>116</v>
+      </c>
+      <c r="I26" s="53" t="s">
+        <v>116</v>
+      </c>
+      <c r="J26" s="52" t="s">
+        <v>3</v>
+      </c>
+      <c r="K26" s="50" t="s">
+        <v>116</v>
+      </c>
+      <c r="L26" s="54" t="s">
+        <v>116</v>
+      </c>
+      <c r="M26" s="54"/>
+      <c r="N26" s="54"/>
+      <c r="O26" s="34" t="s">
         <v>56</v>
       </c>
       <c r="P26" s="64"/>
@@ -3326,42 +3360,46 @@
       <c r="V26" s="1"/>
       <c r="W26" s="1"/>
     </row>
-    <row r="27" spans="1:23" ht="56.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="69" t="s">
-        <v>198</v>
-      </c>
-      <c r="B27" s="50" t="s">
-        <v>236</v>
-      </c>
-      <c r="C27" s="51" t="s">
-        <v>5</v>
-      </c>
-      <c r="D27" s="51" t="s">
-        <v>5</v>
-      </c>
-      <c r="E27" s="52" t="s">
-        <v>237</v>
-      </c>
-      <c r="F27" s="52" t="s">
-        <v>238</v>
-      </c>
-      <c r="G27" s="35" t="s">
-        <v>239</v>
-      </c>
-      <c r="H27" s="50" t="s">
-        <v>240</v>
-      </c>
-      <c r="I27" s="33" t="s">
-        <v>241</v>
-      </c>
-      <c r="J27" s="52" t="s">
-        <v>242</v>
-      </c>
-      <c r="K27" s="50"/>
-      <c r="L27" s="44"/>
-      <c r="M27" s="44"/>
-      <c r="N27" s="44"/>
-      <c r="O27" s="50" t="s">
+    <row r="27" spans="1:23" ht="212.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="71" t="s">
+        <v>98</v>
+      </c>
+      <c r="B27" s="14" t="s">
+        <v>227</v>
+      </c>
+      <c r="C27" s="15" t="s">
+        <v>228</v>
+      </c>
+      <c r="D27" s="15" t="s">
+        <v>229</v>
+      </c>
+      <c r="E27" s="14" t="s">
+        <v>234</v>
+      </c>
+      <c r="F27" s="14" t="s">
+        <v>233</v>
+      </c>
+      <c r="G27" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="H27" s="14" t="s">
+        <v>230</v>
+      </c>
+      <c r="I27" s="14" t="s">
+        <v>232</v>
+      </c>
+      <c r="J27" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="K27" s="14" t="s">
+        <v>235</v>
+      </c>
+      <c r="L27" s="24" t="s">
+        <v>116</v>
+      </c>
+      <c r="M27" s="24"/>
+      <c r="N27" s="24"/>
+      <c r="O27" s="14" t="s">
         <v>56</v>
       </c>
       <c r="P27" s="64"/>
@@ -3370,42 +3408,42 @@
       <c r="V27" s="1"/>
       <c r="W27" s="1"/>
     </row>
-    <row r="28" spans="1:23" ht="30" x14ac:dyDescent="0.2">
-      <c r="A28" s="70" t="s">
-        <v>9</v>
-      </c>
-      <c r="B28" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="C28" s="55" t="s">
-        <v>3</v>
-      </c>
-      <c r="D28" s="55" t="s">
-        <v>3</v>
-      </c>
-      <c r="E28" s="39" t="s">
-        <v>3</v>
-      </c>
-      <c r="F28" s="39" t="s">
-        <v>3</v>
-      </c>
-      <c r="G28" s="39" t="s">
-        <v>3</v>
-      </c>
-      <c r="H28" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="I28" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="J28" s="39" t="s">
+    <row r="28" spans="1:23" ht="56.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="69" t="s">
+        <v>198</v>
+      </c>
+      <c r="B28" s="50" t="s">
+        <v>236</v>
+      </c>
+      <c r="C28" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="K28" s="37"/>
-      <c r="L28" s="39"/>
-      <c r="M28" s="39"/>
-      <c r="N28" s="39"/>
-      <c r="O28" s="37" t="s">
+      <c r="D28" s="51" t="s">
+        <v>5</v>
+      </c>
+      <c r="E28" s="52" t="s">
+        <v>237</v>
+      </c>
+      <c r="F28" s="52" t="s">
+        <v>238</v>
+      </c>
+      <c r="G28" s="35" t="s">
+        <v>239</v>
+      </c>
+      <c r="H28" s="50" t="s">
+        <v>240</v>
+      </c>
+      <c r="I28" s="33" t="s">
+        <v>241</v>
+      </c>
+      <c r="J28" s="52" t="s">
+        <v>242</v>
+      </c>
+      <c r="K28" s="50"/>
+      <c r="L28" s="44"/>
+      <c r="M28" s="44"/>
+      <c r="N28" s="44"/>
+      <c r="O28" s="50" t="s">
         <v>56</v>
       </c>
       <c r="P28" s="64"/>
@@ -3414,12 +3452,12 @@
       <c r="V28" s="1"/>
       <c r="W28" s="1"/>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:23" ht="30" x14ac:dyDescent="0.2">
       <c r="A29" s="70" t="s">
-        <v>262</v>
-      </c>
-      <c r="B29" s="45" t="s">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="B29" s="37" t="s">
+        <v>3</v>
       </c>
       <c r="C29" s="55" t="s">
         <v>3</v>
@@ -3428,28 +3466,28 @@
         <v>3</v>
       </c>
       <c r="E29" s="39" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="F29" s="39" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="G29" s="39" t="s">
-        <v>10</v>
-      </c>
-      <c r="H29" s="45" t="s">
-        <v>3</v>
-      </c>
-      <c r="I29" s="45" t="s">
-        <v>10</v>
-      </c>
-      <c r="J29" s="56" t="s">
-        <v>64</v>
+        <v>3</v>
+      </c>
+      <c r="H29" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="I29" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="J29" s="39" t="s">
+        <v>5</v>
       </c>
       <c r="K29" s="37"/>
       <c r="L29" s="39"/>
       <c r="M29" s="39"/>
       <c r="N29" s="39"/>
-      <c r="O29" s="45" t="s">
+      <c r="O29" s="37" t="s">
         <v>56</v>
       </c>
       <c r="P29" s="64"/>
@@ -3460,36 +3498,36 @@
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A30" s="70" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B30" s="45" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="C30" s="55" t="s">
-        <v>42</v>
+        <v>3</v>
       </c>
       <c r="D30" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="E30" s="46" t="s">
-        <v>3</v>
-      </c>
-      <c r="F30" s="46" t="s">
-        <v>3</v>
-      </c>
-      <c r="G30" s="45" t="s">
-        <v>44</v>
+      <c r="E30" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="F30" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="G30" s="39" t="s">
+        <v>10</v>
       </c>
       <c r="H30" s="45" t="s">
-        <v>43</v>
+        <v>3</v>
       </c>
       <c r="I30" s="45" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="J30" s="56" t="s">
-        <v>53</v>
-      </c>
-      <c r="K30" s="45"/>
+        <v>64</v>
+      </c>
+      <c r="K30" s="37"/>
       <c r="L30" s="39"/>
       <c r="M30" s="39"/>
       <c r="N30" s="39"/>
@@ -3502,42 +3540,42 @@
       <c r="V30" s="1"/>
       <c r="W30" s="1"/>
     </row>
-    <row r="31" spans="1:23" ht="31" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="13" t="s">
-        <v>190</v>
-      </c>
-      <c r="B31" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="C31" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="D31" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="E31" s="23" t="s">
-        <v>191</v>
-      </c>
-      <c r="F31" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="G31" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="H31" s="27" t="s">
-        <v>141</v>
-      </c>
-      <c r="I31" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="J31" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="K31" s="27"/>
-      <c r="L31" s="18"/>
-      <c r="M31" s="18"/>
-      <c r="N31" s="18"/>
-      <c r="O31" s="14" t="s">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A31" s="70" t="s">
+        <v>263</v>
+      </c>
+      <c r="B31" s="45" t="s">
+        <v>44</v>
+      </c>
+      <c r="C31" s="55" t="s">
+        <v>42</v>
+      </c>
+      <c r="D31" s="55" t="s">
+        <v>3</v>
+      </c>
+      <c r="E31" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="F31" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="G31" s="45" t="s">
+        <v>44</v>
+      </c>
+      <c r="H31" s="45" t="s">
+        <v>43</v>
+      </c>
+      <c r="I31" s="45" t="s">
+        <v>45</v>
+      </c>
+      <c r="J31" s="56" t="s">
+        <v>53</v>
+      </c>
+      <c r="K31" s="45"/>
+      <c r="L31" s="39"/>
+      <c r="M31" s="39"/>
+      <c r="N31" s="39"/>
+      <c r="O31" s="45" t="s">
         <v>56</v>
       </c>
       <c r="P31" s="64"/>
@@ -3546,136 +3584,132 @@
       <c r="V31" s="1"/>
       <c r="W31" s="1"/>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A32" s="69" t="s">
-        <v>264</v>
-      </c>
-      <c r="B32" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="C32" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="D32" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="E32" s="52" t="s">
-        <v>3</v>
-      </c>
-      <c r="F32" s="52" t="s">
-        <v>3</v>
-      </c>
-      <c r="G32" s="44" t="s">
-        <v>3</v>
-      </c>
-      <c r="H32" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="I32" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="J32" s="52" t="s">
-        <v>54</v>
-      </c>
-      <c r="K32" s="50" t="s">
-        <v>3</v>
-      </c>
-      <c r="L32" s="44" t="s">
+    <row r="32" spans="1:23" ht="31" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="13" t="s">
+        <v>190</v>
+      </c>
+      <c r="B32" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="C32" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="M32" s="57" t="s">
-        <v>3</v>
-      </c>
-      <c r="N32" s="58" t="s">
-        <v>3</v>
-      </c>
-      <c r="O32" s="52" t="s">
+      <c r="D32" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="E32" s="23" t="s">
+        <v>191</v>
+      </c>
+      <c r="F32" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="G32" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="H32" s="27" t="s">
+        <v>141</v>
+      </c>
+      <c r="I32" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="J32" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="K32" s="27"/>
+      <c r="L32" s="18"/>
+      <c r="M32" s="18"/>
+      <c r="N32" s="18"/>
+      <c r="O32" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="P32" s="1"/>
+      <c r="P32" s="64"/>
       <c r="R32" s="1"/>
       <c r="S32" s="1"/>
       <c r="V32" s="1"/>
       <c r="W32" s="1"/>
     </row>
-    <row r="33" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="75" t="s">
-        <v>4</v>
-      </c>
-      <c r="B33" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="C33" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="D33" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="E33" s="56" t="s">
-        <v>48</v>
-      </c>
-      <c r="F33" s="56" t="s">
-        <v>3</v>
-      </c>
-      <c r="G33" s="59" t="s">
-        <v>46</v>
-      </c>
-      <c r="H33" s="56" t="s">
-        <v>116</v>
-      </c>
-      <c r="I33" s="41" t="s">
-        <v>26</v>
-      </c>
-      <c r="J33" s="56" t="s">
-        <v>3</v>
-      </c>
-      <c r="K33" s="56" t="s">
-        <v>116</v>
-      </c>
-      <c r="L33" s="59" t="s">
-        <v>116</v>
-      </c>
-      <c r="M33" s="46" t="s">
-        <v>3</v>
-      </c>
-      <c r="N33" s="46" t="s">
-        <v>3</v>
-      </c>
-      <c r="O33" s="56" t="s">
+    <row r="33" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A33" s="69" t="s">
+        <v>264</v>
+      </c>
+      <c r="B33" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="D33" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="E33" s="52" t="s">
+        <v>3</v>
+      </c>
+      <c r="F33" s="52" t="s">
+        <v>3</v>
+      </c>
+      <c r="G33" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="H33" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="I33" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="J33" s="52" t="s">
+        <v>54</v>
+      </c>
+      <c r="K33" s="50" t="s">
+        <v>3</v>
+      </c>
+      <c r="L33" s="44" t="s">
+        <v>21</v>
+      </c>
+      <c r="M33" s="57" t="s">
+        <v>3</v>
+      </c>
+      <c r="N33" s="58" t="s">
+        <v>3</v>
+      </c>
+      <c r="O33" s="52" t="s">
         <v>56</v>
       </c>
-      <c r="P33" s="66"/>
+      <c r="P33" s="1"/>
+      <c r="R33" s="1"/>
+      <c r="S33" s="1"/>
+      <c r="V33" s="1"/>
+      <c r="W33" s="1"/>
     </row>
     <row r="34" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="75" t="s">
-        <v>130</v>
-      </c>
-      <c r="B34" s="56" t="s">
-        <v>131</v>
-      </c>
-      <c r="C34" s="55" t="s">
-        <v>116</v>
-      </c>
-      <c r="D34" s="56" t="s">
-        <v>116</v>
+        <v>4</v>
+      </c>
+      <c r="B34" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="C34" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="D34" s="41" t="s">
+        <v>3</v>
       </c>
       <c r="E34" s="56" t="s">
-        <v>131</v>
+        <v>48</v>
       </c>
       <c r="F34" s="56" t="s">
-        <v>131</v>
+        <v>3</v>
       </c>
       <c r="G34" s="59" t="s">
-        <v>116</v>
+        <v>46</v>
       </c>
       <c r="H34" s="56" t="s">
         <v>116</v>
       </c>
       <c r="I34" s="41" t="s">
-        <v>134</v>
+        <v>26</v>
       </c>
       <c r="J34" s="56" t="s">
-        <v>132</v>
+        <v>3</v>
       </c>
       <c r="K34" s="56" t="s">
         <v>116</v>
@@ -3683,223 +3717,264 @@
       <c r="L34" s="59" t="s">
         <v>116</v>
       </c>
-      <c r="M34" s="59" t="s">
-        <v>133</v>
-      </c>
-      <c r="N34" s="59" t="s">
-        <v>136</v>
+      <c r="M34" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="N34" s="46" t="s">
+        <v>3</v>
       </c>
       <c r="O34" s="56" t="s">
         <v>56</v>
       </c>
       <c r="P34" s="66"/>
     </row>
-    <row r="35" spans="1:24" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="71" t="s">
+    <row r="35" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="75" t="s">
+        <v>130</v>
+      </c>
+      <c r="B35" s="56" t="s">
+        <v>131</v>
+      </c>
+      <c r="C35" s="55" t="s">
+        <v>116</v>
+      </c>
+      <c r="D35" s="56" t="s">
+        <v>116</v>
+      </c>
+      <c r="E35" s="56" t="s">
+        <v>131</v>
+      </c>
+      <c r="F35" s="56" t="s">
+        <v>131</v>
+      </c>
+      <c r="G35" s="59" t="s">
+        <v>116</v>
+      </c>
+      <c r="H35" s="56" t="s">
+        <v>116</v>
+      </c>
+      <c r="I35" s="41" t="s">
+        <v>134</v>
+      </c>
+      <c r="J35" s="56" t="s">
+        <v>132</v>
+      </c>
+      <c r="K35" s="56" t="s">
+        <v>116</v>
+      </c>
+      <c r="L35" s="59" t="s">
+        <v>116</v>
+      </c>
+      <c r="M35" s="59" t="s">
+        <v>133</v>
+      </c>
+      <c r="N35" s="59" t="s">
+        <v>136</v>
+      </c>
+      <c r="O35" s="56" t="s">
+        <v>56</v>
+      </c>
+      <c r="P35" s="66"/>
+    </row>
+    <row r="36" spans="1:24" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="71" t="s">
         <v>32</v>
       </c>
-      <c r="B35" s="27" t="s">
+      <c r="B36" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="C35" s="27" t="s">
-        <v>3</v>
-      </c>
-      <c r="D35" s="27" t="s">
-        <v>3</v>
-      </c>
-      <c r="E35" s="27" t="s">
+      <c r="C36" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="D36" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="E36" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="F35" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="G35" s="24" t="s">
+      <c r="F36" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="G36" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="H35" s="27" t="s">
+      <c r="H36" s="27" t="s">
         <v>116</v>
       </c>
-      <c r="I35" s="28" t="s">
+      <c r="I36" s="28" t="s">
         <v>116</v>
       </c>
-      <c r="J35" s="29" t="s">
-        <v>3</v>
-      </c>
-      <c r="K35" s="30" t="s">
+      <c r="J36" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="K36" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="L35" s="30" t="s">
+      <c r="L36" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="M35" s="30" t="s">
-        <v>3</v>
-      </c>
-      <c r="N35" s="30" t="s">
-        <v>3</v>
-      </c>
-      <c r="O35" s="27" t="s">
+      <c r="M36" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="N36" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="O36" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="P35" s="64"/>
-      <c r="R35" s="1"/>
-      <c r="S35" s="1"/>
-      <c r="V35" s="1"/>
-      <c r="W35" s="1"/>
-    </row>
-    <row r="36" spans="1:24" s="4" customFormat="1" ht="75" x14ac:dyDescent="0.2">
-      <c r="A36" s="60" t="s">
+      <c r="P36" s="64"/>
+      <c r="R36" s="1"/>
+      <c r="S36" s="1"/>
+      <c r="V36" s="1"/>
+      <c r="W36" s="1"/>
+    </row>
+    <row r="37" spans="1:24" s="4" customFormat="1" ht="75" x14ac:dyDescent="0.2">
+      <c r="A37" s="60" t="s">
         <v>137</v>
       </c>
-      <c r="B36" s="52" t="s">
+      <c r="B37" s="52" t="s">
         <v>243</v>
       </c>
-      <c r="C36" s="50" t="s">
+      <c r="C37" s="50" t="s">
         <v>244</v>
       </c>
-      <c r="D36" s="50" t="s">
+      <c r="D37" s="50" t="s">
         <v>244</v>
       </c>
-      <c r="E36" s="52" t="s">
+      <c r="E37" s="52" t="s">
         <v>245</v>
       </c>
-      <c r="F36" s="52" t="s">
+      <c r="F37" s="52" t="s">
         <v>246</v>
       </c>
-      <c r="G36" s="61" t="s">
+      <c r="G37" s="61" t="s">
         <v>138</v>
       </c>
-      <c r="H36" s="62" t="s">
+      <c r="H37" s="62" t="s">
         <v>247</v>
       </c>
-      <c r="I36" s="52" t="s">
+      <c r="I37" s="52" t="s">
         <v>248</v>
       </c>
-      <c r="J36" s="52" t="s">
+      <c r="J37" s="52" t="s">
         <v>249</v>
       </c>
-      <c r="K36" s="52" t="s">
+      <c r="K37" s="52" t="s">
         <v>250</v>
       </c>
-      <c r="L36" s="61" t="s">
+      <c r="L37" s="61" t="s">
         <v>251</v>
       </c>
-      <c r="M36" s="61" t="s">
+      <c r="M37" s="61" t="s">
         <v>252</v>
       </c>
-      <c r="N36" s="61" t="s">
+      <c r="N37" s="61" t="s">
         <v>253</v>
       </c>
-      <c r="O36" s="52" t="s">
+      <c r="O37" s="52" t="s">
         <v>56</v>
       </c>
-      <c r="P36" s="66"/>
-    </row>
-    <row r="37" spans="1:24" ht="91" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="70" t="s">
+      <c r="P37" s="66"/>
+    </row>
+    <row r="38" spans="1:24" ht="91" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="70" t="s">
         <v>139</v>
       </c>
-      <c r="B37" s="45" t="s">
+      <c r="B38" s="45" t="s">
         <v>254</v>
       </c>
-      <c r="C37" s="55" t="s">
+      <c r="C38" s="55" t="s">
         <v>255</v>
       </c>
-      <c r="D37" s="55" t="s">
+      <c r="D38" s="55" t="s">
         <v>256</v>
       </c>
-      <c r="E37" s="45" t="s">
+      <c r="E38" s="45" t="s">
         <v>116</v>
       </c>
-      <c r="F37" s="46" t="s">
+      <c r="F38" s="46" t="s">
         <v>116</v>
       </c>
-      <c r="G37" s="63" t="s">
+      <c r="G38" s="63" t="s">
         <v>257</v>
       </c>
-      <c r="H37" s="55" t="s">
+      <c r="H38" s="55" t="s">
         <v>116</v>
       </c>
-      <c r="I37" s="45" t="s">
+      <c r="I38" s="45" t="s">
         <v>116</v>
       </c>
-      <c r="J37" s="56" t="s">
+      <c r="J38" s="56" t="s">
         <v>116</v>
       </c>
-      <c r="K37" s="45" t="s">
+      <c r="K38" s="45" t="s">
         <v>116</v>
       </c>
-      <c r="L37" s="46" t="s">
+      <c r="L38" s="46" t="s">
         <v>116</v>
       </c>
-      <c r="M37" s="46"/>
-      <c r="N37" s="46"/>
-      <c r="O37" s="37" t="s">
+      <c r="M38" s="46"/>
+      <c r="N38" s="46"/>
+      <c r="O38" s="37" t="s">
         <v>56</v>
       </c>
-      <c r="P37" s="64"/>
-      <c r="R37" s="1"/>
-      <c r="S37" s="1"/>
-      <c r="V37" s="1"/>
-      <c r="W37" s="1"/>
-    </row>
-    <row r="38" spans="1:24" ht="91" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="68" t="s">
-        <v>206</v>
-      </c>
-      <c r="B38" s="10" t="s">
-        <v>258</v>
-      </c>
-      <c r="C38" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="D38" s="31" t="s">
-        <v>116</v>
-      </c>
-      <c r="E38" s="10" t="s">
-        <v>259</v>
-      </c>
-      <c r="F38" s="12" t="s">
-        <v>260</v>
-      </c>
-      <c r="G38" s="26" t="s">
-        <v>116</v>
-      </c>
-      <c r="H38" s="25" t="s">
-        <v>119</v>
-      </c>
-      <c r="I38" s="10" t="s">
-        <v>261</v>
-      </c>
-      <c r="J38" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="K38" s="10" t="s">
-        <v>265</v>
-      </c>
-      <c r="L38" s="26" t="s">
-        <v>116</v>
-      </c>
-      <c r="M38" s="26"/>
-      <c r="N38" s="26"/>
-      <c r="O38" s="25" t="s">
-        <v>56</v>
-      </c>
-      <c r="P38" s="1"/>
+      <c r="P38" s="64"/>
       <c r="R38" s="1"/>
       <c r="S38" s="1"/>
       <c r="V38" s="1"/>
       <c r="W38" s="1"/>
     </row>
-    <row r="39" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A39" s="76"/>
-      <c r="B39" s="76"/>
-      <c r="C39" s="5"/>
-      <c r="D39" s="5"/>
-      <c r="E39" s="5"/>
+    <row r="39" spans="1:24" ht="91" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="68" t="s">
+        <v>206</v>
+      </c>
+      <c r="B39" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="C39" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="D39" s="31" t="s">
+        <v>116</v>
+      </c>
+      <c r="E39" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="F39" s="12" t="s">
+        <v>260</v>
+      </c>
+      <c r="G39" s="26" t="s">
+        <v>116</v>
+      </c>
+      <c r="H39" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="I39" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="J39" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="K39" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="L39" s="26" t="s">
+        <v>116</v>
+      </c>
+      <c r="M39" s="26"/>
+      <c r="N39" s="26"/>
+      <c r="O39" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="P39" s="1"/>
+      <c r="R39" s="1"/>
+      <c r="S39" s="1"/>
+      <c r="V39" s="1"/>
+      <c r="W39" s="1"/>
     </row>
     <row r="40" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A40" s="5"/>
-      <c r="B40" s="5"/>
+      <c r="A40" s="76"/>
+      <c r="B40" s="76"/>
       <c r="C40" s="5"/>
       <c r="D40" s="5"/>
       <c r="E40" s="5"/>
@@ -3917,16 +3992,16 @@
       <c r="C42" s="5"/>
       <c r="D42" s="5"/>
       <c r="E42" s="5"/>
-      <c r="X42" s="7"/>
-    </row>
-    <row r="43" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="43" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A43" s="5"/>
       <c r="B43" s="5"/>
       <c r="C43" s="5"/>
       <c r="D43" s="5"/>
       <c r="E43" s="5"/>
-    </row>
-    <row r="44" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="X43" s="7"/>
+    </row>
+    <row r="44" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="5"/>
       <c r="B44" s="5"/>
       <c r="C44" s="5"/>
@@ -3936,27 +4011,27 @@
     <row r="45" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A45" s="5"/>
       <c r="B45" s="5"/>
-      <c r="C45" s="6"/>
+      <c r="C45" s="5"/>
       <c r="D45" s="5"/>
       <c r="E45" s="5"/>
     </row>
     <row r="46" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A46" s="5"/>
       <c r="B46" s="5"/>
-      <c r="C46" s="5"/>
+      <c r="C46" s="6"/>
       <c r="D46" s="5"/>
       <c r="E46" s="5"/>
     </row>
     <row r="47" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A47" s="76"/>
-      <c r="B47" s="76"/>
+      <c r="A47" s="5"/>
+      <c r="B47" s="5"/>
       <c r="C47" s="5"/>
       <c r="D47" s="5"/>
       <c r="E47" s="5"/>
     </row>
     <row r="48" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A48" s="6"/>
-      <c r="B48" s="6"/>
+      <c r="A48" s="76"/>
+      <c r="B48" s="76"/>
       <c r="C48" s="5"/>
       <c r="D48" s="5"/>
       <c r="E48" s="5"/>
@@ -3970,16 +4045,23 @@
     </row>
     <row r="50" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A50" s="6"/>
-      <c r="B50" s="5"/>
+      <c r="B50" s="6"/>
       <c r="C50" s="5"/>
       <c r="D50" s="5"/>
       <c r="E50" s="5"/>
-      <c r="X50" s="8"/>
+    </row>
+    <row r="51" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A51" s="6"/>
+      <c r="B51" s="5"/>
+      <c r="C51" s="5"/>
+      <c r="D51" s="5"/>
+      <c r="E51" s="5"/>
+      <c r="X51" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="A40:B40"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
